--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf17.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf17.xlsx
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H2">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I2">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J2">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.002913</v>
+        <v>0.07218766666666666</v>
       </c>
       <c r="N2">
-        <v>0.008739</v>
+        <v>0.216563</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.003360933952000001</v>
+        <v>0.03626364278788889</v>
       </c>
       <c r="R2">
-        <v>0.030248405568</v>
+        <v>0.326372785091</v>
       </c>
       <c r="S2">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="T2">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -608,10 +608,10 @@
         <v>1.682841</v>
       </c>
       <c r="I3">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J3">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.002913</v>
+        <v>0.07218766666666666</v>
       </c>
       <c r="N3">
-        <v>0.008739</v>
+        <v>0.216563</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.001634038611</v>
+        <v>0.04049345505366667</v>
       </c>
       <c r="R3">
-        <v>0.014706347499</v>
+        <v>0.364441095483</v>
       </c>
       <c r="S3">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="T3">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H4">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I4">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J4">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.002913</v>
+        <v>0.07218766666666666</v>
       </c>
       <c r="N4">
-        <v>0.008739</v>
+        <v>0.216563</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.011178854033</v>
+        <v>0.2054221089654445</v>
       </c>
       <c r="R4">
-        <v>0.100609686297</v>
+        <v>1.848798980689</v>
       </c>
       <c r="S4">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="T4">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H5">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I5">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J5">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.002913</v>
+        <v>0.07218766666666666</v>
       </c>
       <c r="N5">
-        <v>0.008739</v>
+        <v>0.216563</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.0005324468790000001</v>
+        <v>0.008332622363333332</v>
       </c>
       <c r="R5">
-        <v>0.004792021911</v>
+        <v>0.07499360127</v>
       </c>
       <c r="S5">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="T5">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H6">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I6">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J6">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.002913</v>
+        <v>0.07218766666666666</v>
       </c>
       <c r="N6">
-        <v>0.008739</v>
+        <v>0.216563</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.009260976585999999</v>
+        <v>0.2660299354591111</v>
       </c>
       <c r="R6">
-        <v>0.08334878927399998</v>
+        <v>2.394269419132</v>
       </c>
       <c r="S6">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="T6">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
     </row>
   </sheetData>
